--- a/resultado_organizacional.xlsx
+++ b/resultado_organizacional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0281234d13572a04/Doutorado/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_AF71D09D0791D309B38536D1433088B35299F086" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D56C6594-A92E-4B90-89A2-DB6784AA8D7A}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_AF71D09D07A1D48793287913563088B35299F60B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC0BBD9A-B18C-4A07-93FF-FC64249C7D5D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Estrutura</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Entropia Total</t>
   </si>
   <si>
+    <t>Total_Membros</t>
+  </si>
+  <si>
     <t>Níveis</t>
   </si>
   <si>
@@ -49,7 +52,19 @@
     <t>Membros_Nivel_3</t>
   </si>
   <si>
+    <t>Org_Size</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
     <t>Valor_da_Estrutura</t>
+  </si>
+  <si>
+    <t>Complexidade Organizacional</t>
+  </si>
+  <si>
+    <t>Qualidade Prevista</t>
   </si>
   <si>
     <t>A</t>
@@ -62,7 +77,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +92,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,23 +133,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -424,26 +451,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,66 +495,111 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>1.2954618442383219</v>
+      </c>
+      <c r="C2">
+        <v>1.3899750004807709</v>
+      </c>
+      <c r="D2">
+        <v>2.6854368447190931</v>
+      </c>
+      <c r="E2">
         <v>10</v>
       </c>
-      <c r="B2" s="3">
-        <v>1.2954618442383219</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1.3899750004807709</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2.6854368447190931</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2">
         <v>3</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2">
         <v>6</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>200</v>
+      </c>
+      <c r="M2" s="2">
         <v>0.25</v>
       </c>
+      <c r="N2" s="2">
+        <v>103</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0.96153846153846156</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
         <v>0.81127812445913283</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>0.79248125036057804</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>1.603759374819711</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3">
         <v>3</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3">
+        <v>1000</v>
+      </c>
+      <c r="L3">
+        <v>2000</v>
+      </c>
+      <c r="M3" s="2">
         <v>0.25</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1001.2</v>
+      </c>
+      <c r="O3" s="3">
+        <v>9.9780482937537412E-2</v>
       </c>
     </row>
   </sheetData>
